--- a/trunk/SEP/4. Testing/SystemTestCase_HuyenLe 0.4.xlsx
+++ b/trunk/SEP/4. Testing/SystemTestCase_HuyenLe 0.4.xlsx
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,7 +1552,7 @@
         <v>249</v>
       </c>
       <c r="B3" s="18">
-        <v>41125</v>
+        <v>41112</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>250</v>
@@ -1566,7 +1566,7 @@
         <v>249</v>
       </c>
       <c r="B4" s="18">
-        <v>41126</v>
+        <v>41114</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>251</v>
@@ -1580,7 +1580,7 @@
         <v>249</v>
       </c>
       <c r="B5" s="18">
-        <v>41127</v>
+        <v>41116</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>252</v>
